--- a/data/trans_orig/P14C27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD1C3C7-8F19-476F-9EB5-CC2DA3154D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE2D1E0-6E6D-4799-AEA2-EE5626D7879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{188E4B84-3693-4F8C-BD52-E0B304B44503}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0A96AF7-22B4-4181-9B21-3597F075AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>59,75%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,16 +107,16 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>69,73%</t>
+    <t>70,39%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,13 +131,13 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>49,23%</t>
+    <t>48,6%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>37,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,7 +194,7 @@
     <t>17,83%</t>
   </si>
   <si>
-    <t>77,12%</t>
+    <t>80,0%</t>
   </si>
   <si>
     <t>62,45%</t>
@@ -206,16 +206,16 @@
     <t>42,15%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>22,88%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>18,49%</t>
@@ -227,10 +227,10 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>19,06%</t>
@@ -242,7 +242,7 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>42,79%</t>
+    <t>43,36%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,28 +254,31 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>65,93%</t>
+    <t>69,97%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>48,78%</t>
+    <t>48,77%</t>
   </si>
   <si>
     <t>32,14%</t>
@@ -284,16 +287,16 @@
     <t>29,21%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -419,9 +422,6 @@
     <t>45,31%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
     <t>32,86%</t>
   </si>
   <si>
@@ -443,127 +443,127 @@
     <t>51,38%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>42,99%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>29,78%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E02235-CA05-4055-9819-A62481CBF375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001483D5-66C2-4B09-A17D-7759D8400777}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1741,7 +1741,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1750,13 +1750,13 @@
         <v>5427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>1115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1801,13 +1801,13 @@
         <v>1115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
@@ -1837,13 +1837,13 @@
         <v>1914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1852,13 +1852,13 @@
         <v>2816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1924,13 +1924,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1942,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>34</v>
@@ -1957,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -1973,13 +1973,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2022,13 +2022,13 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2071,13 +2071,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2124,10 +2124,10 @@
         <v>2436</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2139,13 +2139,13 @@
         <v>3521</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2154,13 +2154,13 @@
         <v>5958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2175,13 @@
         <v>1781</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2190,13 +2190,13 @@
         <v>4776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2205,13 +2205,13 @@
         <v>6556</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2330,10 +2330,10 @@
         <v>6468</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2345,13 +2345,13 @@
         <v>10792</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -2360,13 +2360,13 @@
         <v>17260</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2381,13 @@
         <v>1951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2396,13 +2396,13 @@
         <v>4281</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2411,13 +2411,13 @@
         <v>6232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2432,13 @@
         <v>1059</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>2212</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
@@ -2593,7 +2593,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>

--- a/data/trans_orig/P14C27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE2D1E0-6E6D-4799-AEA2-EE5626D7879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A690804-0A7D-415A-B0C6-F3562B9B1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0A96AF7-22B4-4181-9B21-3597F075AD0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A7FF32C-5F22-425E-86C3-ED82B66D5D24}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="177">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cataratas en 2015 (Tasa respuesta: 1,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cataratas en 2016 (Tasa respuesta: 1,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>59,75%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,16 +107,16 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>70,39%</t>
+    <t>71,32%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,13 +131,13 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>48,6%</t>
+    <t>51,25%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>37,08%</t>
+    <t>38,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,286 +152,286 @@
     <t>58,74%</t>
   </si>
   <si>
-    <t>16,8%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>38,75%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -443,127 +443,124 @@
     <t>51,38%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>42,95%</t>
+    <t>39,99%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>28,66%</t>
+    <t>30,35%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>22,09%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001483D5-66C2-4B09-A17D-7759D8400777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2968479-EC14-4A37-AF02-300B063FB38B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1532,7 +1529,7 @@
         <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1544,13 +1541,13 @@
         <v>4068</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,10 +1562,10 @@
         <v>3607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1580,13 +1577,13 @@
         <v>973</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1595,13 +1592,13 @@
         <v>4580</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1628,13 @@
         <v>1003</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1646,13 +1643,13 @@
         <v>1003</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1720,7 +1717,7 @@
         <v>1903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -1735,13 +1732,13 @@
         <v>3524</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1750,13 +1747,13 @@
         <v>5427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,13 +1783,13 @@
         <v>1115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1801,13 +1798,13 @@
         <v>1115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,7 +1819,7 @@
         <v>902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
@@ -1837,13 +1834,13 @@
         <v>1914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1852,13 +1849,13 @@
         <v>2816</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,7 +1911,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1924,13 +1921,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1942,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>34</v>
@@ -1957,7 +1954,7 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -1973,13 +1970,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2022,13 +2019,13 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2071,13 +2068,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2124,10 +2121,10 @@
         <v>2436</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2139,13 +2136,13 @@
         <v>3521</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2154,13 +2151,13 @@
         <v>5958</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2172,13 @@
         <v>1781</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2190,13 +2187,13 @@
         <v>4776</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2205,13 +2202,13 @@
         <v>6556</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2244,7 @@
         <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2262,7 +2259,7 @@
         <v>28</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2315,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2330,13 +2327,13 @@
         <v>6468</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -2345,13 +2342,13 @@
         <v>10792</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -2360,13 +2357,13 @@
         <v>17260</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2378,13 @@
         <v>1951</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2396,13 +2393,13 @@
         <v>4281</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2411,13 +2408,13 @@
         <v>6232</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2429,13 @@
         <v>1059</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2447,7 +2444,7 @@
         <v>2212</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
@@ -2593,7 +2590,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2644,7 +2641,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -2829,7 +2826,7 @@
         <v>166</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2841,13 @@
         <v>1961</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -2859,13 +2856,13 @@
         <v>8727</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -2874,13 +2871,13 @@
         <v>10688</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2933,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
